--- a/newTest1.xlsx
+++ b/newTest1.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PODO\Desktop\문제 업로드 테스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PODO\source\repos\SAT_SubTest\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="3795" windowWidth="22470" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="yHzWqY+khZ5f57Ca86mB7eRlBd5HEckt3TEArLDMeNc="/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="482">
   <si>
     <t>Section1, Module1: Reading and Writing</t>
   </si>
@@ -1587,35 +1587,55 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/13; 0.385</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>-</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>C</t>
+    <t>F</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>C</t>
+    <t>F</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
+    <t xml:space="preserve">By analyzing more than one millon surface ocean observations from the Drake Passage, the researchers detected subtle differences between the CO\sub 2\nosupersub  trends in the surface ocean and the atmosphere that suggest a strengthening of the carbon sinl that is most pronunced during winter. Although the researchers aren't sure of the exact mechanism driving these changes, it's likely related to winter mixing with deep waters that have not had contact with the atmosphere for several hundred years. These results contrast with previous findings that showed that the Southern Ocean's CO\sub 2\nosupersub  sink had been stagnant or weakening from the early 1990s to the ealry 2000s. "Given the inpertance of the Southern Ocean to the global oceans' role in absorbing atmospheric CO\sub 2\nosupersub , these studies suggest that we must continue th expand our measurements in this part of the world despite the challenging environment," says Colm Sweeney, lead investigator on the Drake Passage study. </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>D</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5/13; 0.385</t>
+    <t>To highligh the need to correct the problem of CO\sub 2\nosupersub  absorption before it is too late</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1623,7 +1643,287 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
+    <t>-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The average SAT score of 7 students in a class 
+is 1,320. If a student with an SAT score of 1,460 
+joins the class, what will be the new average SAT 
+score (rounded off to the nearest 10)?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The number of bacteria at the beginning of 
+the study</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The number of bacteria triples every two 
+weeks</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The number of bacteria in the pond after two 
+weeks</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The number of bacteria increases by 3 every two weeks</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>One solution</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two solutions</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infinitely many solutions</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is the length of the minor arc AB, given 
+that the diameter of the circle is 12 cm and the 
+measure of the angle of sector AOB is [[72^\circ]]?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[2.4\pi]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[28.8\pi]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[12\pi]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[\frac{\pi}{6}]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>If the coordinates of the midpoint of line segment AB are (8, 10) and the coordinates of point A are (6, 11), which of the following would represent the coordinates of point B?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(10, 9)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>There is not enough information to answer 
+the question</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	What is the value of [[\left| f(2) \right|]] where [[f(x) = x^2 - 20x + 9]]?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The price of oil increased by [[20%]] at the beginning of May. Some policies were then put in place which reduced the price of oil by [[14%]] two weeks after the initial increase. What is the overall percentage increase or decrease in the oil?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A circle is inscribed in a square. If the length of 
+one side of the square is [[4\sqrt{2}]] and the area of the circle is [[p\pi]], what is the value of [[p]]?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[-3x + 6 \le 2 - x]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following is not a solution to the 
+inequality below?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>If [[m]] and [[n]] are solutions to the equation [[f(x) = 3x^2 + 9x -27]], what is the value of [[m+n]]?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following is equivalent to [[3x^2y + 5x - (3x^2y^2 - 2x^2y)]]?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[6x^2y-3x^2y^2 + 5x]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[x^2y-3x^2y^2 + 5x]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[6x^2y-2x^2y^2 + 5x]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[-3x^2y^2+5x^2y + 5x]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[-2y + 2 &lt; 6]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is the least integer value of [[y]] that satisfies the inequality below?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>How many solutions does the following system of 
+equations have?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infinite</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>If [[3x - y = 11]] and [[2x - 2y = 2]], what is the value of [[x + y]]?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>If [[1 foot = 12 inches]], what is the area of the 
+triangle (not drawn to scale) below in [[ft^2]]?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[\frac{x^2 + 20}{4}]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[\frac{-x^2 -5x +20}{x^2 - 4x}]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[\frac{-9-x}{x-4}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following equations best represents 
+the equation of the following graph?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[3y - 9x = 18]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[3y + 9x = 18]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[6y - 12x = 36]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[5y + 20x = 30]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[y - 7 = 3^x - 5]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>If [[f(3) = -1]] and [[f(4) = -3]], what is the [[x - intercept]] for the line represented by the function [[f(x)]]?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[\frac{2}{5}]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>If [[(x + 3) = 5x- 17]], what is the value of [[f(2)]] ?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amber travels from her home to the mall in [[1\frac{1}{2}hours]]. She completes her errands in one hour and she then travels back home in [[2\frac{1}{2}hours]]. If the distance from the mall to her home is [[x]] miles, find the average speed of her trip in terms of [[x]].</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[\frac{x}{4}]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[\frac{x}{2}]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[\frac{2x}{5}]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[2x]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A study conducted by a schools medical board 
+found that 23 out of the 48 students surveyed 
+practice sanitary routines such as washing their 
+hands before meals. If there are 2,280 students 
+in the school, approximately how many students 
+in the school do not practice sanitary routines 
+(rounded up to the nearest whole number)?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following is the equation of [[g(x) = 2x]] when it's moved 1 unit to the left and 1 
+unit up?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[y = 2x -1]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[y = 2x + 1]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[y = 2x + 5]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[y = 2x + 3]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is the [[x coordinate]] of the vertex for 
+the parabola represented by the equation 
+[[y = 2x^2 + 8x + 12]] ?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The psychology department of a school 
+conducted a study on 20 random students in a 
+third grade class of 58 students. 20 of the students were then offered a supplement. The study found that 15 of these students did better in their end-term exams compared to those who did not take the supplements. Which of the following statements can best be concluded from the above study?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Students who take supplements do better on exams.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Students who do not take supplements do not do well on their exams.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supplements improve students performance 
+in their exams.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>No conclusion can be drawn about the cause- 
+and-effect relationship between test taking 
+and supplement taking.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>If [[x + 3y = 9]] and [[2x + 2y = 14]] , what is the value of [[y - x]]?</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1631,27 +1931,481 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>O</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[[5(x+3) - 3(2-x) = px </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 7]]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[[3x - 4y = 16]] \par </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>-6x = -8y + 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>How many solutions does the following system of equations have?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>No solution</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2, 0.5)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(7, 10.5)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How many solutions does the equation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[[\left| x + 3 \right| = 0]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> have?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[[y = 2x - 5]] \par [[y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 2x^2 - 18x + 45]]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>If [[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>sin 32^\circ = 0.551]], what is the value of [[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>cos 58^\circ]]?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For all values of [[x &gt; 0]], which of the following is equivalent to the following equation [[\frac{-5}{x} - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>\frac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>{x}{x-4}]]?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For what value of [[x]] does the function </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[[h(x) = \frac{3x-5}{x^2 - 2x - 15}]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> become undefined if [[x &lt;0]] ?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is the [[y]]-intercept for the equation below?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Given that the length of a rectangle is [[3 meters]] more than its width, what is the perimeter of the rectangle given that the area is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[[28 square meters]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>If [[\frac{x^2 - 6x +10}{x+2} = A + \frac{B}{x+2}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, what is the value of B? </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If triangle [[ABC]] is a right triangle and [[B]] is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>90^\circ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> and the longest side of the triangle is 61 and the shortest side is 11, what is the length of the third side of the triangle?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A researcher studies bacteria in a pond and models a function that shows how the bacteria populate in the pond. Let </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[[t]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> be the number of days since the bacteria began to populate the pond. Which of the following is the best interpretation of [[(3)^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>\frac{t}{14}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>]] in the equation: [[p(t) = 2,034(3)^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>\frac{t}{14}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The expression [[y = -2(x+3)^2 + 6]] is equivalent to [[ax^2 + bx + c]], where [[a&lt;0]] and [[b&lt;0]]. What is the value of [[c]]?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>F</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>F</t>
+    <r>
+      <t>What is the value of [[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>]], if the equation below has no solutions?</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">By analyzing more than one millon surface ocean observations from the Drake Passage, the researchers detected subtle differences between the CO\sub 2\nosupersub  trends in the surface ocean and the atmosphere that suggest a strengthening of the carbon sinl that is most pronunced during winter. Although the researchers aren't sure of the exact mechanism driving these changes, it's likely related to winter mixing with deep waters that have not had contact with the atmosphere for several hundred years. These results contrast with previous findings that showed that the Southern Ocean's CO\sub 2\nosupersub  sink had been stagnant or weakening from the early 1990s to the ealry 2000s. "Given the inpertance of the Southern Ocean to the global oceans' role in absorbing atmospheric CO\sub 2\nosupersub , these studies suggest that we must continue th expand our measurements in this part of the world despite the challenging environment," says Colm Sweeney, lead investigator on the Drake Passage study. </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>To highligh the need to correct the problem of CO\sub 2\nosupersub  absorption before it is too late</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
+    <t>(7, 11)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1659,7 +2413,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1695,13 +2449,38 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1716,7 +2495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1730,6 +2509,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1949,7 +2749,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1957,7 +2759,9 @@
     <col min="2" max="2" width="48.28515625" customWidth="1"/>
     <col min="3" max="3" width="49.28515625" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="7" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="24" width="8.7109375" customWidth="1"/>
   </cols>
@@ -2177,7 +2981,7 @@
         <v>284</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
@@ -2192,7 +2996,7 @@
         <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>5</v>
@@ -2424,7 +3228,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" ht="148.5">
+    <row r="12" spans="1:24" ht="99">
       <c r="A12" s="1" t="s">
         <v>284</v>
       </c>
@@ -3161,7 +3965,7 @@
         <v>371</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3203,7 +4007,7 @@
         <v>379</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -3245,7 +4049,7 @@
         <v>372</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -3287,7 +4091,7 @@
         <v>378</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -3329,7 +4133,7 @@
         <v>373</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -3371,7 +4175,7 @@
         <v>373</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -3945,7 +4749,7 @@
         <v>209</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -4659,7 +5463,7 @@
         <v>373</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -4743,7 +5547,7 @@
         <v>381</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -4785,7 +5589,7 @@
         <v>371</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -4853,7 +5657,7 @@
         <v>278</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -4874,7 +5678,7 @@
     </row>
     <row r="71" spans="1:24" ht="82.5">
       <c r="A71" s="1" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>338</v>
@@ -4895,7 +5699,7 @@
         <v>337</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -4969,7 +5773,7 @@
         <v>346</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -5009,7 +5813,7 @@
         <v>350</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -5083,7 +5887,7 @@
         <v>355</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -5102,7 +5906,7 @@
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
     </row>
-    <row r="77" spans="1:24" ht="132">
+    <row r="77" spans="1:24" ht="82.5">
       <c r="A77" s="1" t="s">
         <v>359</v>
       </c>
@@ -5123,7 +5927,7 @@
         <v>368</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -5163,7 +5967,7 @@
         <v>364</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -5195,7 +5999,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -5214,20 +6018,28 @@
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
     </row>
-    <row r="80" spans="1:24" ht="16.5" customHeight="1">
+    <row r="80" spans="1:24" ht="75" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D80" s="5">
+        <v>1390</v>
+      </c>
+      <c r="E80" s="5">
+        <v>1340</v>
+      </c>
+      <c r="F80" s="5">
+        <v>1300</v>
+      </c>
+      <c r="G80" s="5">
+        <v>1460</v>
+      </c>
+      <c r="H80" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -5246,20 +6058,28 @@
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
     </row>
-    <row r="81" spans="1:24" ht="16.5" customHeight="1">
+    <row r="81" spans="1:24" ht="118.5" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B81" s="1"/>
-      <c r="C81" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+      <c r="C81" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="H81" s="2" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -5278,20 +6098,22 @@
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
     </row>
-    <row r="82" spans="1:24" ht="16.5" customHeight="1">
+    <row r="82" spans="1:24" ht="45.75" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1" t="s">
-        <v>371</v>
+        <v>392</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>480</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="2" t="s">
-        <v>371</v>
+      <c r="H82" s="2">
+        <v>8</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -5310,20 +6132,30 @@
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
     </row>
-    <row r="83" spans="1:24" ht="16.5" customHeight="1">
+    <row r="83" spans="1:24" ht="49.5" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B83" s="1"/>
+        <v>392</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>463</v>
+      </c>
       <c r="C83" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
+        <v>464</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="H83" s="2" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -5342,20 +6174,28 @@
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
     </row>
-    <row r="84" spans="1:24" ht="16.5" customHeight="1">
+    <row r="84" spans="1:24" ht="69.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>392</v>
+        <v>289</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
+        <v>405</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>409</v>
+      </c>
       <c r="H84" s="2" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -5374,20 +6214,20 @@
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
     </row>
-    <row r="85" spans="1:24" ht="16.5" customHeight="1">
+    <row r="85" spans="1:24" ht="59.25" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>373</v>
+        <v>478</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="2" t="s">
-        <v>371</v>
+      <c r="H85" s="2">
+        <v>-12</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -5406,20 +6246,28 @@
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
     </row>
-    <row r="86" spans="1:24" ht="16.5" customHeight="1">
+    <row r="86" spans="1:24" ht="63" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
+        <v>479</v>
+      </c>
+      <c r="B86" s="9"/>
+      <c r="C86" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>481</v>
+      </c>
       <c r="H86" s="2" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -5438,20 +6286,28 @@
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
     </row>
-    <row r="87" spans="1:24" ht="16.5" customHeight="1">
+    <row r="87" spans="1:24" ht="58.5" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
+      <c r="C87" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1">
+        <v>2</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>412</v>
+      </c>
       <c r="H87" s="2" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -5470,20 +6326,28 @@
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
     </row>
-    <row r="88" spans="1:24" ht="16.5" customHeight="1">
+    <row r="88" spans="1:24" ht="33.75" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
+        <v>413</v>
+      </c>
+      <c r="D88" s="1">
+        <v>27</v>
+      </c>
+      <c r="E88" s="1">
+        <v>-27</v>
+      </c>
+      <c r="F88" s="1">
+        <v>53</v>
+      </c>
+      <c r="G88" s="1">
+        <v>35</v>
+      </c>
       <c r="H88" s="2" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -5502,20 +6366,20 @@
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
     </row>
-    <row r="89" spans="1:24" ht="16.5" customHeight="1">
+    <row r="89" spans="1:24" ht="96" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="2" t="s">
-        <v>371</v>
+      <c r="H89" s="2">
+        <v>3.2</v>
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -5534,20 +6398,28 @@
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
     </row>
-    <row r="90" spans="1:24" ht="16.5" customHeight="1">
+    <row r="90" spans="1:24" ht="75.75" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
+        <v>415</v>
+      </c>
+      <c r="D90" s="1">
+        <v>32</v>
+      </c>
+      <c r="E90" s="1">
+        <v>16</v>
+      </c>
+      <c r="F90" s="1">
+        <v>8</v>
+      </c>
+      <c r="G90" s="1">
+        <v>64</v>
+      </c>
       <c r="H90" s="2" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -5566,20 +6438,30 @@
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
     </row>
-    <row r="91" spans="1:24" ht="16.5" customHeight="1">
+    <row r="91" spans="1:24" ht="37.5" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B91" s="1"/>
+        <v>392</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>416</v>
+      </c>
       <c r="C91" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
+        <v>417</v>
+      </c>
+      <c r="D91" s="1">
+        <v>2</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1">
+        <v>3</v>
+      </c>
+      <c r="G91" s="1">
+        <v>4</v>
+      </c>
       <c r="H91" s="2" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
@@ -5602,14 +6484,24 @@
       <c r="A92" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
+      <c r="B92" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>371</v>
+      </c>
       <c r="H92" s="2" t="s">
         <v>371</v>
       </c>
@@ -5630,18 +6522,28 @@
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
     </row>
-    <row r="93" spans="1:24" ht="16.5" customHeight="1">
+    <row r="93" spans="1:24" ht="30.75" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
+      <c r="B93" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>371</v>
+      </c>
       <c r="H93" s="2" t="s">
         <v>371</v>
       </c>
@@ -5662,18 +6564,28 @@
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
     </row>
-    <row r="94" spans="1:24" ht="16.5" customHeight="1">
+    <row r="94" spans="1:24" ht="39" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
+        <v>391</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>371</v>
+      </c>
       <c r="H94" s="2" t="s">
         <v>371</v>
       </c>
@@ -5694,18 +6606,28 @@
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
     </row>
-    <row r="95" spans="1:24" ht="16.5" customHeight="1">
+    <row r="95" spans="1:24" ht="53.25" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
+        <v>392</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>371</v>
+      </c>
       <c r="H95" s="2" t="s">
         <v>371</v>
       </c>
@@ -5726,20 +6648,30 @@
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
     </row>
-    <row r="96" spans="1:24" ht="16.5" customHeight="1">
+    <row r="96" spans="1:24" ht="53.25" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
+        <v>330</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>371</v>
+      </c>
       <c r="H96" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -5786,20 +6718,28 @@
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
     </row>
-    <row r="98" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A98" s="1" t="s">
-        <v>393</v>
+    <row r="98" spans="1:24" ht="67.5" customHeight="1">
+      <c r="A98" s="11" t="s">
+        <v>460</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
+        <v>418</v>
+      </c>
+      <c r="D98" s="1">
+        <v>3</v>
+      </c>
+      <c r="E98" s="1">
+        <v>-9</v>
+      </c>
+      <c r="F98" s="1">
+        <v>-3</v>
+      </c>
+      <c r="G98" s="1">
+        <v>9</v>
+      </c>
       <c r="H98" s="2" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -5820,18 +6760,26 @@
     </row>
     <row r="99" spans="1:24" ht="16.5" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
+        <v>419</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="H99" s="2" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -5854,16 +6802,18 @@
       <c r="A100" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B100" s="1"/>
+      <c r="B100" s="1" t="s">
+        <v>424</v>
+      </c>
       <c r="C100" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="2" t="s">
-        <v>371</v>
+        <v>425</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="2">
+        <v>-1</v>
       </c>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -5886,16 +6836,26 @@
       <c r="A101" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B101" s="1"/>
+      <c r="B101" s="7" t="s">
+        <v>469</v>
+      </c>
       <c r="C101" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
+        <v>426</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1</v>
+      </c>
+      <c r="E101" s="1">
+        <v>2</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>427</v>
+      </c>
       <c r="H101" s="2" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -5920,14 +6880,22 @@
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
+        <v>428</v>
+      </c>
+      <c r="D102" s="1">
+        <v>9</v>
+      </c>
+      <c r="E102" s="1">
+        <v>5</v>
+      </c>
+      <c r="F102" s="1">
+        <v>3</v>
+      </c>
+      <c r="G102" s="1">
+        <v>13</v>
+      </c>
       <c r="H102" s="2" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -5946,20 +6914,20 @@
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
     </row>
-    <row r="103" spans="1:24" ht="16.5" customHeight="1">
+    <row r="103" spans="1:24" ht="33">
       <c r="A103" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1" t="s">
-        <v>373</v>
+      <c r="B103" s="10"/>
+      <c r="C103" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-      <c r="H103" s="2" t="s">
-        <v>373</v>
+      <c r="H103" s="2">
+        <v>0.55100000000000005</v>
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -5978,20 +6946,28 @@
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
     </row>
-    <row r="104" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A104" s="1" t="s">
-        <v>394</v>
+    <row r="104" spans="1:24" ht="37.5" customHeight="1">
+      <c r="A104" s="11" t="s">
+        <v>289</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
+        <v>429</v>
+      </c>
+      <c r="D104" s="1">
+        <v>120</v>
+      </c>
+      <c r="E104" s="1">
+        <v>20</v>
+      </c>
+      <c r="F104" s="5">
+        <v>1440</v>
+      </c>
+      <c r="G104" s="1">
+        <v>10</v>
+      </c>
       <c r="H104" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -6010,20 +6986,28 @@
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
     </row>
-    <row r="105" spans="1:24" ht="16.5" customHeight="1">
+    <row r="105" spans="1:24" ht="52.5" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
+      <c r="C105" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="D105" s="1">
+        <v>-6</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="H105" s="2" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -6042,20 +7026,28 @@
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
     </row>
-    <row r="106" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A106" s="1" t="s">
-        <v>330</v>
+    <row r="106" spans="1:24" ht="34.5" customHeight="1">
+      <c r="A106" s="11" t="s">
+        <v>461</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
+        <v>433</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="H106" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -6074,20 +7066,22 @@
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
     </row>
-    <row r="107" spans="1:24" ht="16.5" customHeight="1">
+    <row r="107" spans="1:24" ht="47.25" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1" t="s">
-        <v>373</v>
+        <v>392</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>473</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
-      <c r="H107" s="2" t="s">
-        <v>373</v>
+      <c r="H107" s="2">
+        <v>3</v>
       </c>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -6106,20 +7100,28 @@
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
     </row>
-    <row r="108" spans="1:24" ht="16.5" customHeight="1">
+    <row r="108" spans="1:24" ht="54" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
+      <c r="C108" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="D108" s="1">
+        <v>5</v>
+      </c>
+      <c r="E108" s="1">
+        <v>-5</v>
+      </c>
+      <c r="F108" s="1">
+        <v>-3</v>
+      </c>
+      <c r="G108" s="1">
+        <v>-4</v>
+      </c>
       <c r="H108" s="2" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -6138,20 +7140,28 @@
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
     </row>
-    <row r="109" spans="1:24" ht="16.5" customHeight="1">
+    <row r="109" spans="1:24" ht="46.5" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
+        <v>439</v>
+      </c>
+      <c r="D109" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E109" s="1">
+        <v>5</v>
+      </c>
+      <c r="F109" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>440</v>
+      </c>
       <c r="H109" s="2" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -6170,20 +7180,20 @@
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
     </row>
-    <row r="110" spans="1:24" ht="16.5" customHeight="1">
+    <row r="110" spans="1:24" ht="31.5" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1" t="s">
-        <v>373</v>
+        <v>441</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
-      <c r="H110" s="2" t="s">
-        <v>373</v>
+      <c r="H110" s="2">
+        <v>-22</v>
       </c>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -6202,20 +7212,28 @@
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
     </row>
-    <row r="111" spans="1:24" ht="16.5" customHeight="1">
+    <row r="111" spans="1:24" ht="98.25" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
+        <v>442</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="H111" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -6234,20 +7252,28 @@
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
     </row>
-    <row r="112" spans="1:24" ht="16.5" customHeight="1">
+    <row r="112" spans="1:24" ht="65.25" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B112" s="1"/>
-      <c r="C112" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
+      <c r="C112" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="D112" s="1">
+        <v>11</v>
+      </c>
+      <c r="E112" s="1">
+        <v>22</v>
+      </c>
+      <c r="F112" s="1">
+        <v>14</v>
+      </c>
+      <c r="G112" s="1">
+        <v>32</v>
+      </c>
       <c r="H112" s="2" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -6266,20 +7292,20 @@
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
     </row>
-    <row r="113" spans="1:24" ht="16.5" customHeight="1">
+    <row r="113" spans="1:24" ht="117" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1" t="s">
-        <v>373</v>
+        <v>447</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
-      <c r="H113" s="2" t="s">
-        <v>373</v>
+      <c r="H113" s="2">
+        <v>1188</v>
       </c>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -6298,20 +7324,28 @@
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
     </row>
-    <row r="114" spans="1:24" ht="16.5" customHeight="1">
+    <row r="114" spans="1:24" ht="63.75" customHeight="1">
       <c r="A114" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
+        <v>448</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>452</v>
+      </c>
       <c r="H114" s="2" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
@@ -6330,20 +7364,28 @@
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
     </row>
-    <row r="115" spans="1:24" ht="16.5" customHeight="1">
+    <row r="115" spans="1:24" ht="68.25" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
+        <v>453</v>
+      </c>
+      <c r="D115" s="1">
+        <v>6</v>
+      </c>
+      <c r="E115" s="1">
+        <v>-4</v>
+      </c>
+      <c r="F115" s="1">
+        <v>2</v>
+      </c>
+      <c r="G115" s="1">
+        <v>-2</v>
+      </c>
       <c r="H115" s="2" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -6362,20 +7404,20 @@
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
     </row>
-    <row r="116" spans="1:24" ht="16.5" customHeight="1">
+    <row r="116" spans="1:24" ht="45.75" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B116" s="1"/>
-      <c r="C116" s="1" t="s">
-        <v>373</v>
+      <c r="C116" s="7" t="s">
+        <v>475</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
-      <c r="H116" s="2" t="s">
-        <v>375</v>
+      <c r="H116" s="2">
+        <v>26</v>
       </c>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -6394,20 +7436,28 @@
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
     </row>
-    <row r="117" spans="1:24" ht="16.5" customHeight="1">
+    <row r="117" spans="1:24" ht="67.5" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B117" s="1"/>
-      <c r="C117" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
+      <c r="C117" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="D117" s="1">
+        <v>40</v>
+      </c>
+      <c r="E117" s="1">
+        <v>60</v>
+      </c>
+      <c r="F117" s="1">
+        <v>62</v>
+      </c>
+      <c r="G117" s="1">
+        <v>59</v>
+      </c>
       <c r="H117" s="2" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -6426,20 +7476,28 @@
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
     </row>
-    <row r="118" spans="1:24" ht="16.5" customHeight="1">
+    <row r="118" spans="1:24" ht="163.5" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
+        <v>454</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>458</v>
+      </c>
       <c r="H118" s="2" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
@@ -6458,20 +7516,28 @@
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
     </row>
-    <row r="119" spans="1:24" ht="16.5" customHeight="1">
+    <row r="119" spans="1:24" ht="45" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
+        <v>459</v>
+      </c>
+      <c r="D119" s="1">
+        <v>-5</v>
+      </c>
+      <c r="E119" s="1">
+        <v>5</v>
+      </c>
+      <c r="F119" s="1">
+        <v>1</v>
+      </c>
+      <c r="G119" s="1">
+        <v>6</v>
+      </c>
       <c r="H119" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
@@ -6492,7 +7558,7 @@
     </row>
     <row r="120" spans="1:24" ht="16.5" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1" t="s">
@@ -6524,7 +7590,7 @@
     </row>
     <row r="121" spans="1:24" ht="16.5" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1" t="s">
@@ -6556,7 +7622,7 @@
     </row>
     <row r="122" spans="1:24" ht="16.5" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1" t="s">
@@ -6567,7 +7633,7 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
@@ -6588,7 +7654,7 @@
     </row>
     <row r="123" spans="1:24" ht="16.5" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1" t="s">
@@ -6620,7 +7686,7 @@
     </row>
     <row r="124" spans="1:24" ht="16.5" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1" t="s">
